--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.595075</v>
+        <v>114.056483</v>
       </c>
       <c r="H2">
-        <v>325.785225</v>
+        <v>342.169449</v>
       </c>
       <c r="I2">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="J2">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1509866666666667</v>
+        <v>0.3079056666666667</v>
       </c>
       <c r="N2">
-        <v>0.45296</v>
+        <v>0.923717</v>
       </c>
       <c r="O2">
-        <v>0.1408567208271788</v>
+        <v>0.365951416554946</v>
       </c>
       <c r="P2">
-        <v>0.1408567208271787</v>
+        <v>0.365951416554946</v>
       </c>
       <c r="Q2">
-        <v>16.39640839066667</v>
+        <v>35.11863743577034</v>
       </c>
       <c r="R2">
-        <v>147.567675516</v>
+        <v>316.067736921933</v>
       </c>
       <c r="S2">
-        <v>0.006534375526483416</v>
+        <v>0.02051891510661959</v>
       </c>
       <c r="T2">
-        <v>0.006534375526483416</v>
+        <v>0.02051891510661959</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.595075</v>
+        <v>114.056483</v>
       </c>
       <c r="H3">
-        <v>325.785225</v>
+        <v>342.169449</v>
       </c>
       <c r="I3">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="J3">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.9209299999999999</v>
+        <v>0.1509866666666667</v>
       </c>
       <c r="N3">
-        <v>2.76279</v>
+        <v>0.45296</v>
       </c>
       <c r="O3">
-        <v>0.8591432791728212</v>
+        <v>0.1794503659050643</v>
       </c>
       <c r="P3">
-        <v>0.8591432791728213</v>
+        <v>0.1794503659050644</v>
       </c>
       <c r="Q3">
-        <v>100.00846241975</v>
+        <v>17.22100817989333</v>
       </c>
       <c r="R3">
-        <v>900.07616177775</v>
+        <v>154.98907361904</v>
       </c>
       <c r="S3">
-        <v>0.03985585341048462</v>
+        <v>0.01006179142171727</v>
       </c>
       <c r="T3">
-        <v>0.03985585341048463</v>
+        <v>0.01006179142171727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>251.7279513333333</v>
+        <v>114.056483</v>
       </c>
       <c r="H4">
-        <v>755.183854</v>
+        <v>342.169449</v>
       </c>
       <c r="I4">
-        <v>0.1075345018380187</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="J4">
-        <v>0.1075345018380187</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1509866666666667</v>
+        <v>0.328922</v>
       </c>
       <c r="N4">
-        <v>0.45296</v>
+        <v>0.986766</v>
       </c>
       <c r="O4">
-        <v>0.1408567208271788</v>
+        <v>0.3909297062934403</v>
       </c>
       <c r="P4">
-        <v>0.1408567208271787</v>
+        <v>0.3909297062934404</v>
       </c>
       <c r="Q4">
-        <v>38.00756427864889</v>
+        <v>37.515686501326</v>
       </c>
       <c r="R4">
-        <v>342.06807850784</v>
+        <v>337.641178511934</v>
       </c>
       <c r="S4">
-        <v>0.01514695730468754</v>
+        <v>0.02191944912142852</v>
       </c>
       <c r="T4">
-        <v>0.01514695730468754</v>
+        <v>0.02191944912142852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>251.7279513333333</v>
+        <v>114.056483</v>
       </c>
       <c r="H5">
-        <v>755.183854</v>
+        <v>342.169449</v>
       </c>
       <c r="I5">
-        <v>0.1075345018380187</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="J5">
-        <v>0.1075345018380187</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9209299999999999</v>
+        <v>0.05356966666666666</v>
       </c>
       <c r="N5">
-        <v>2.76279</v>
+        <v>0.160709</v>
       </c>
       <c r="O5">
-        <v>0.8591432791728212</v>
+        <v>0.06366851124654933</v>
       </c>
       <c r="P5">
-        <v>0.8591432791728213</v>
+        <v>0.06366851124654933</v>
       </c>
       <c r="Q5">
-        <v>231.8238222214066</v>
+        <v>6.109967775482333</v>
       </c>
       <c r="R5">
-        <v>2086.41439999266</v>
+        <v>54.98970997934099</v>
       </c>
       <c r="S5">
-        <v>0.09238754453333116</v>
+        <v>0.003569896762612064</v>
       </c>
       <c r="T5">
-        <v>0.09238754453333119</v>
+        <v>0.003569896762612064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>86.13644799999999</v>
+        <v>251.7279513333333</v>
       </c>
       <c r="H6">
-        <v>258.409344</v>
+        <v>755.183854</v>
       </c>
       <c r="I6">
-        <v>0.03679623171250852</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="J6">
-        <v>0.03679623171250853</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,33 +803,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1509866666666667</v>
+        <v>0.3079056666666667</v>
       </c>
       <c r="N6">
-        <v>0.45296</v>
+        <v>0.923717</v>
       </c>
       <c r="O6">
-        <v>0.1408567208271788</v>
+        <v>0.365951416554946</v>
       </c>
       <c r="P6">
-        <v>0.1408567208271787</v>
+        <v>0.365951416554946</v>
       </c>
       <c r="Q6">
-        <v>13.00545516202667</v>
+        <v>77.50846267392423</v>
       </c>
       <c r="R6">
-        <v>117.04909645824</v>
+        <v>697.576164065318</v>
       </c>
       <c r="S6">
-        <v>0.005182996537820995</v>
+        <v>0.04528619792153274</v>
       </c>
       <c r="T6">
-        <v>0.005182996537820995</v>
+        <v>0.04528619792153275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>86.13644799999999</v>
+        <v>251.7279513333333</v>
       </c>
       <c r="H7">
-        <v>258.409344</v>
+        <v>755.183854</v>
       </c>
       <c r="I7">
-        <v>0.03679623171250852</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="J7">
-        <v>0.03679623171250853</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.9209299999999999</v>
+        <v>0.1509866666666667</v>
       </c>
       <c r="N7">
-        <v>2.76279</v>
+        <v>0.45296</v>
       </c>
       <c r="O7">
-        <v>0.8591432791728212</v>
+        <v>0.1794503659050643</v>
       </c>
       <c r="P7">
-        <v>0.8591432791728213</v>
+        <v>0.1794503659050644</v>
       </c>
       <c r="Q7">
-        <v>79.32563905663999</v>
+        <v>38.00756427864889</v>
       </c>
       <c r="R7">
-        <v>713.9307515097599</v>
+        <v>342.06807850784</v>
       </c>
       <c r="S7">
-        <v>0.03161323517468752</v>
+        <v>0.02220684063467216</v>
       </c>
       <c r="T7">
-        <v>0.03161323517468754</v>
+        <v>0.02220684063467217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1894.44458</v>
+        <v>251.7279513333333</v>
       </c>
       <c r="H8">
-        <v>5683.33374</v>
+        <v>755.183854</v>
       </c>
       <c r="I8">
-        <v>0.8092790375125046</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="J8">
-        <v>0.8092790375125047</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1509866666666667</v>
+        <v>0.328922</v>
       </c>
       <c r="N8">
-        <v>0.45296</v>
+        <v>0.986766</v>
       </c>
       <c r="O8">
-        <v>0.1408567208271788</v>
+        <v>0.3909297062934403</v>
       </c>
       <c r="P8">
-        <v>0.1408567208271787</v>
+        <v>0.3909297062934404</v>
       </c>
       <c r="Q8">
-        <v>286.0358723189334</v>
+        <v>82.79886120846267</v>
       </c>
       <c r="R8">
-        <v>2574.3228508704</v>
+        <v>745.189750876164</v>
       </c>
       <c r="S8">
-        <v>0.1139923914581868</v>
+        <v>0.04837724149088863</v>
       </c>
       <c r="T8">
-        <v>0.1139923914581868</v>
+        <v>0.04837724149088864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>251.7279513333333</v>
+      </c>
+      <c r="H9">
+        <v>755.183854</v>
+      </c>
+      <c r="I9">
+        <v>0.1237492078808041</v>
+      </c>
+      <c r="J9">
+        <v>0.1237492078808041</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05356966666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.160709</v>
+      </c>
+      <c r="O9">
+        <v>0.06366851124654933</v>
+      </c>
+      <c r="P9">
+        <v>0.06366851124654933</v>
+      </c>
+      <c r="Q9">
+        <v>13.48498244360955</v>
+      </c>
+      <c r="R9">
+        <v>121.364841992486</v>
+      </c>
+      <c r="S9">
+        <v>0.007878927833710546</v>
+      </c>
+      <c r="T9">
+        <v>0.007878927833710548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1894.44458</v>
-      </c>
-      <c r="H9">
-        <v>5683.33374</v>
-      </c>
-      <c r="I9">
-        <v>0.8092790375125046</v>
-      </c>
-      <c r="J9">
-        <v>0.8092790375125047</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.9209299999999999</v>
-      </c>
-      <c r="N9">
-        <v>2.76279</v>
-      </c>
-      <c r="O9">
-        <v>0.8591432791728212</v>
-      </c>
-      <c r="P9">
-        <v>0.8591432791728213</v>
-      </c>
-      <c r="Q9">
-        <v>1744.6508470594</v>
-      </c>
-      <c r="R9">
-        <v>15701.8576235346</v>
-      </c>
-      <c r="S9">
-        <v>0.6952866460543178</v>
-      </c>
-      <c r="T9">
-        <v>0.695286646054318</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>70.67310566666667</v>
+      </c>
+      <c r="H10">
+        <v>212.019317</v>
+      </c>
+      <c r="I10">
+        <v>0.03474282771699605</v>
+      </c>
+      <c r="J10">
+        <v>0.03474282771699606</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.3079056666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.923717</v>
+      </c>
+      <c r="O10">
+        <v>0.365951416554946</v>
+      </c>
+      <c r="P10">
+        <v>0.365951416554946</v>
+      </c>
+      <c r="Q10">
+        <v>21.76064971569878</v>
+      </c>
+      <c r="R10">
+        <v>195.845847441289</v>
+      </c>
+      <c r="S10">
+        <v>0.01271418701815914</v>
+      </c>
+      <c r="T10">
+        <v>0.01271418701815915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>70.67310566666667</v>
+      </c>
+      <c r="H11">
+        <v>212.019317</v>
+      </c>
+      <c r="I11">
+        <v>0.03474282771699605</v>
+      </c>
+      <c r="J11">
+        <v>0.03474282771699606</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1509866666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.45296</v>
+      </c>
+      <c r="O11">
+        <v>0.1794503659050643</v>
+      </c>
+      <c r="P11">
+        <v>0.1794503659050644</v>
+      </c>
+      <c r="Q11">
+        <v>10.67069664759111</v>
+      </c>
+      <c r="R11">
+        <v>96.03626982832</v>
+      </c>
+      <c r="S11">
+        <v>0.006234613146391552</v>
+      </c>
+      <c r="T11">
+        <v>0.006234613146391554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>70.67310566666667</v>
+      </c>
+      <c r="H12">
+        <v>212.019317</v>
+      </c>
+      <c r="I12">
+        <v>0.03474282771699605</v>
+      </c>
+      <c r="J12">
+        <v>0.03474282771699606</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.328922</v>
+      </c>
+      <c r="N12">
+        <v>0.986766</v>
+      </c>
+      <c r="O12">
+        <v>0.3909297062934403</v>
+      </c>
+      <c r="P12">
+        <v>0.3909297062934404</v>
+      </c>
+      <c r="Q12">
+        <v>23.24593926209133</v>
+      </c>
+      <c r="R12">
+        <v>209.213453358822</v>
+      </c>
+      <c r="S12">
+        <v>0.01358200343520886</v>
+      </c>
+      <c r="T12">
+        <v>0.01358200343520887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>70.67310566666667</v>
+      </c>
+      <c r="H13">
+        <v>212.019317</v>
+      </c>
+      <c r="I13">
+        <v>0.03474282771699605</v>
+      </c>
+      <c r="J13">
+        <v>0.03474282771699606</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05356966666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.160709</v>
+      </c>
+      <c r="O13">
+        <v>0.06366851124654933</v>
+      </c>
+      <c r="P13">
+        <v>0.06366851124654933</v>
+      </c>
+      <c r="Q13">
+        <v>3.785934712861444</v>
+      </c>
+      <c r="R13">
+        <v>34.073412415753</v>
+      </c>
+      <c r="S13">
+        <v>0.002212024117236489</v>
+      </c>
+      <c r="T13">
+        <v>0.00221202411723649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1597.720744</v>
+      </c>
+      <c r="H14">
+        <v>4793.162232</v>
+      </c>
+      <c r="I14">
+        <v>0.7854379119898224</v>
+      </c>
+      <c r="J14">
+        <v>0.7854379119898224</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.3079056666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.923717</v>
+      </c>
+      <c r="O14">
+        <v>0.365951416554946</v>
+      </c>
+      <c r="P14">
+        <v>0.365951416554946</v>
+      </c>
+      <c r="Q14">
+        <v>491.9472708284827</v>
+      </c>
+      <c r="R14">
+        <v>4427.525437456344</v>
+      </c>
+      <c r="S14">
+        <v>0.2874321165086345</v>
+      </c>
+      <c r="T14">
+        <v>0.2874321165086345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1597.720744</v>
+      </c>
+      <c r="H15">
+        <v>4793.162232</v>
+      </c>
+      <c r="I15">
+        <v>0.7854379119898224</v>
+      </c>
+      <c r="J15">
+        <v>0.7854379119898224</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1509866666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.45296</v>
+      </c>
+      <c r="O15">
+        <v>0.1794503659050643</v>
+      </c>
+      <c r="P15">
+        <v>0.1794503659050644</v>
+      </c>
+      <c r="Q15">
+        <v>241.2345294007467</v>
+      </c>
+      <c r="R15">
+        <v>2171.11076460672</v>
+      </c>
+      <c r="S15">
+        <v>0.1409471207022834</v>
+      </c>
+      <c r="T15">
+        <v>0.1409471207022834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1597.720744</v>
+      </c>
+      <c r="H16">
+        <v>4793.162232</v>
+      </c>
+      <c r="I16">
+        <v>0.7854379119898224</v>
+      </c>
+      <c r="J16">
+        <v>0.7854379119898224</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.328922</v>
+      </c>
+      <c r="N16">
+        <v>0.986766</v>
+      </c>
+      <c r="O16">
+        <v>0.3909297062934403</v>
+      </c>
+      <c r="P16">
+        <v>0.3909297062934404</v>
+      </c>
+      <c r="Q16">
+        <v>525.525502557968</v>
+      </c>
+      <c r="R16">
+        <v>4729.729523021711</v>
+      </c>
+      <c r="S16">
+        <v>0.3070510122459143</v>
+      </c>
+      <c r="T16">
+        <v>0.3070510122459144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1597.720744</v>
+      </c>
+      <c r="H17">
+        <v>4793.162232</v>
+      </c>
+      <c r="I17">
+        <v>0.7854379119898224</v>
+      </c>
+      <c r="J17">
+        <v>0.7854379119898224</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05356966666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.160709</v>
+      </c>
+      <c r="O17">
+        <v>0.06366851124654933</v>
+      </c>
+      <c r="P17">
+        <v>0.06366851124654933</v>
+      </c>
+      <c r="Q17">
+        <v>85.58936768249866</v>
+      </c>
+      <c r="R17">
+        <v>770.3043091424879</v>
+      </c>
+      <c r="S17">
+        <v>0.05000766253299023</v>
+      </c>
+      <c r="T17">
+        <v>0.05000766253299023</v>
       </c>
     </row>
   </sheetData>
